--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E6A1EC-20F4-4A7A-8B8D-BA0794C73FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7048E5E-D3B7-4ACB-B2E5-817A1EFF3470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>reduce_id</t>
   </si>
@@ -69,6 +69,183 @@
   <si>
     <t>รหัส ค่าลดหย่อน
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>RMF</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>ผู้มีเงินได้(60,000บาทหรือ 120,000บาทแล้วแต่กรณี)</t>
+  </si>
+  <si>
+    <t>คู่สมรส (60,000 บาท กรณีมีเงินได้รวมคำ นวณภาษีหรือไม่มีเงินได้)</t>
+  </si>
+  <si>
+    <t>บุตรคนที่ 1 30,000 บาท</t>
+  </si>
+  <si>
+    <t>บุตรคนที่ 2 60,000 บาท</t>
+  </si>
+  <si>
+    <t>บิดาของผู้มีเงินได้</t>
+  </si>
+  <si>
+    <t>มารดาของผู้มีเงินได้</t>
+  </si>
+  <si>
+    <t>บิดาของคู่สมรสที่มีเงินได้</t>
+  </si>
+  <si>
+    <t>มารดาของคู่สมรสที่มีเงินได้</t>
+  </si>
+  <si>
+    <t>อุปการะเลี้ยงดูคนพิการหรือคนทุพพลภาพ</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันสุขภาพบิดาของผู้มีเงินได้</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันสุขภาพมารดาของผู้มีเงินได้</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันสุขภาพบิดาคู่สมรส</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันสุขภาพมารดาคู่สมรส</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันชีวิต</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันสุขภาพ</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันชีวิตแบบบำนาญ</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยเงินกู้ยืมเพื่อซื้อ เช่าซื้อ หรือสร้างอาคารอยู่อาศัย</t>
+  </si>
+  <si>
+    <t>ค่าฝากครรภ์และค่าคลอดบุตร</t>
+  </si>
+  <si>
+    <t>เงินที่บริจาคแก่พรรคการเมือง</t>
+  </si>
+  <si>
+    <t>เงินสนับสนุนการศึกษา</t>
+  </si>
+  <si>
+    <t>เงินบริจาค</t>
+  </si>
+  <si>
+    <t>เงินสะสมกองทุนสำรองเลี้ยงชีพ</t>
+  </si>
+  <si>
+    <t>ค่าซื้อหน่วยลงทุนในกองทุนรวมเพื่อการเลี้ยงชีพ(RMF)</t>
+  </si>
+  <si>
+    <t>ค่าซื้อหน่วยลงทุนในกองทุนรวมเพื่อการออม SSF</t>
+  </si>
+  <si>
+    <t>เงินสมทบทุนประกันสังคม</t>
   </si>
 </sst>
 </file>
@@ -145,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -477,15 +655,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.08984375" customWidth="1"/>
     <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" customWidth="1"/>
@@ -493,7 +671,7 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,13 +684,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -523,15 +701,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="19.90625" customWidth="1"/>
+    <col min="1" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="53.90625" customWidth="1"/>
+    <col min="4" max="6" width="19.90625" customWidth="1"/>
     <col min="7" max="7" width="27.26953125" customWidth="1"/>
     <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
@@ -582,6 +762,506 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7048E5E-D3B7-4ACB-B2E5-817A1EFF3470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BC79F-5895-459D-8B81-9E62DE30716A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>reduce_id</t>
   </si>
@@ -71,24 +71,6 @@
 ความยาวไม่เกิน 5 ตัว</t>
   </si>
   <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>65000</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -98,69 +80,6 @@
     <t>9000</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -171,69 +90,6 @@
   </si>
   <si>
     <t>SSO</t>
-  </si>
-  <si>
-    <t>ผู้มีเงินได้(60,000บาทหรือ 120,000บาทแล้วแต่กรณี)</t>
-  </si>
-  <si>
-    <t>คู่สมรส (60,000 บาท กรณีมีเงินได้รวมคำ นวณภาษีหรือไม่มีเงินได้)</t>
-  </si>
-  <si>
-    <t>บุตรคนที่ 1 30,000 บาท</t>
-  </si>
-  <si>
-    <t>บุตรคนที่ 2 60,000 บาท</t>
-  </si>
-  <si>
-    <t>บิดาของผู้มีเงินได้</t>
-  </si>
-  <si>
-    <t>มารดาของผู้มีเงินได้</t>
-  </si>
-  <si>
-    <t>บิดาของคู่สมรสที่มีเงินได้</t>
-  </si>
-  <si>
-    <t>มารดาของคู่สมรสที่มีเงินได้</t>
-  </si>
-  <si>
-    <t>อุปการะเลี้ยงดูคนพิการหรือคนทุพพลภาพ</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันสุขภาพบิดาของผู้มีเงินได้</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันสุขภาพมารดาของผู้มีเงินได้</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันสุขภาพบิดาคู่สมรส</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันสุขภาพมารดาคู่สมรส</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันชีวิต</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันสุขภาพ</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันชีวิตแบบบำนาญ</t>
-  </si>
-  <si>
-    <t>ดอกเบี้ยเงินกู้ยืมเพื่อซื้อ เช่าซื้อ หรือสร้างอาคารอยู่อาศัย</t>
-  </si>
-  <si>
-    <t>ค่าฝากครรภ์และค่าคลอดบุตร</t>
-  </si>
-  <si>
-    <t>เงินที่บริจาคแก่พรรคการเมือง</t>
-  </si>
-  <si>
-    <t>เงินสนับสนุนการศึกษา</t>
-  </si>
-  <si>
-    <t>เงินบริจาค</t>
   </si>
   <si>
     <t>เงินสะสมกองทุนสำรองเลี้ยงชีพ</t>
@@ -655,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -701,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,16 +620,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -784,16 +637,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -804,16 +654,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -824,441 +671,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
         <v>0</v>
       </c>
     </row>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BC79F-5895-459D-8B81-9E62DE30716A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C3D45-7922-41D2-B7D4-6C3B8044C709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>reduce_id</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>จำนวนเงินได้ ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% ของเงินได้ </t>
   </si>
   <si>
     <t>เปอร์เซ็นต์ สูงสุด</t>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>เงินสมทบทุนประกันสังคม</t>
+  </si>
+  <si>
+    <t>จำนวนเงินได้สูงสุด ความยาวไม่เกิน 100  ตัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เปอร์เซ็นต์ ของเงินได้ </t>
+  </si>
+  <si>
+    <t>reduce_amount_max</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,7 +533,7 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,9 +550,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,12 +581,12 @@
     <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -589,13 +598,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,77 +624,92 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
       <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C3D45-7922-41D2-B7D4-6C3B8044C709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE90D6-AEE4-4674-970C-573E6EB77FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>reduce_id</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>reduce_percent_max</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>reduce_amount_max</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +205,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -518,7 +527,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,35 +588,38 @@
     <col min="4" max="6" width="19.90625" customWidth="1"/>
     <col min="7" max="7" width="27.26953125" customWidth="1"/>
     <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="10" max="11" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -632,79 +644,85 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -714,6 +732,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE90D6-AEE4-4674-970C-573E6EB77FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2582C8A-4470-4D0D-8B2B-51D912C08EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>reduce_id</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -524,47 +533,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="1" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -575,165 +587,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="53.90625" customWidth="1"/>
-    <col min="4" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" customWidth="1"/>
-    <col min="10" max="11" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" customWidth="1"/>
+    <col min="5" max="7" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" customWidth="1"/>
+    <col min="11" max="12" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6"/>
       <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reduce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2582C8A-4470-4D0D-8B2B-51D912C08EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47038C51-5CC7-4473-8FB6-AE7F3431F022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>reduce_id</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -196,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,9 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -533,50 +524,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -587,172 +575,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B801F-08B6-49E3-A94B-21ED6CC7461E}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="53.90625" customWidth="1"/>
-    <col min="5" max="7" width="19.90625" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" customWidth="1"/>
-    <col min="11" max="12" width="25.7265625" customWidth="1"/>
+    <col min="1" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="53.90625" customWidth="1"/>
+    <col min="4" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="10" max="11" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
+      <c r="G3" s="5">
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
+      <c r="G5" s="5">
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
+      <c r="G6" s="5">
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
